--- a/medicine/Mort/Tueur_à_gages/Tueur_à_gages.xlsx
+++ b/medicine/Mort/Tueur_à_gages/Tueur_à_gages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_gages</t>
+          <t>Tueur_à_gages</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tueur à gages ou sicaire est une personne qui se fait rémunérer pour assassiner d'autres personnes.
-Comme il n'a aucun lien direct avec ses victimes, un tueur à gages est beaucoup plus difficile à identifier, ainsi que de remonter à son commanditaire. Il demande généralement une grosse somme d'argent en contrepartie de son crime[1].
+Comme il n'a aucun lien direct avec ses victimes, un tueur à gages est beaucoup plus difficile à identifier, ainsi que de remonter à son commanditaire. Il demande généralement une grosse somme d'argent en contrepartie de son crime.
 Par exemple, aux États-Unis, les tueurs mafieux regroupés au sein de « Murder Incorporated » ont commis des centaines de meurtres au nom du Syndicat national du crime (National Crime Syndicate) dans les années 1930 et 1940.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_gages</t>
+          <t>Tueur_à_gages</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2004, une étude de l'Institut australien de criminologie sur 162 meurtres à forfait et tentatives de meurtre à forfait en Australie, entre 1989 et 2002, a indiqué que la raison la plus courante de meurtre pour compte d'autrui était le paiement d'une police d'assurance. L'étude a également révélé que les paiements variaient de 5 000 à 30 000 $ par meurtre, avec une moyenne de 15 000 $, et que les armes les plus couramment utilisées étaient les armes à feu. Les « meurtres à forfait » représentaient 2 % des meurtres en Australie au cours de cette période[2]
-Les meurtres à forfait représentent généralement un faible pourcentage des meurtres. Par exemple, ils représentaient environ 5 % de tous les meurtres en Écosse, de 1993 à 2002[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, une étude de l'Institut australien de criminologie sur 162 meurtres à forfait et tentatives de meurtre à forfait en Australie, entre 1989 et 2002, a indiqué que la raison la plus courante de meurtre pour compte d'autrui était le paiement d'une police d'assurance. L'étude a également révélé que les paiements variaient de 5 000 à 30 000 $ par meurtre, avec une moyenne de 15 000 $, et que les armes les plus couramment utilisées étaient les armes à feu. Les « meurtres à forfait » représentaient 2 % des meurtres en Australie au cours de cette période
+Les meurtres à forfait représentent généralement un faible pourcentage des meurtres. Par exemple, ils représentaient environ 5 % de tous les meurtres en Écosse, de 1993 à 2002.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tueur_%C3%A0_gages</t>
+          <t>Tueur_à_gages</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le manga Hunter X Hunter scénarisé et dessiné par Yoshihiro Togashi, la famille Zoldyck est une famille d'assassins qu'on peut comparer à des tueurs à gages. Kirua en est un des principaux membres.
 La franchise de jeux vidéo Hitman (série de jeux vidéo) a comme protagoniste un tueur à gage nommé 47</t>
